--- a/input_files/template.xlsx
+++ b/input_files/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17819DE2-CC19-EE4D-B3E6-A6331818F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB60B7F-C572-214F-A27A-4CA614252E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C7583198-B141-1C4B-B50F-A9FA90CFEBEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{C7583198-B141-1C4B-B50F-A9FA90CFEBEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Measured Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Glutamine" sheetId="1" r:id="rId1"/>
+    <sheet name="Glucose" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="103">
   <si>
     <t>Experiment ID</t>
   </si>
   <si>
-    <t>NIIMBL-FB01-B1</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Irfan Hodzic/Meghan McCann</t>
-  </si>
-  <si>
     <t>Cell Line</t>
   </si>
   <si>
-    <t>GS CHOZN Clone 23</t>
-  </si>
-  <si>
     <t>Initial Volume (mL)</t>
   </si>
   <si>
@@ -217,9 +209,6 @@
     <t>FEED TRYPTOPHAN CONC. (mM)</t>
   </si>
   <si>
-    <t>FEED TYROSINE  CONC. (mM)</t>
-  </si>
-  <si>
     <t>FEED VALINE CONC. (mM)</t>
   </si>
   <si>
@@ -331,13 +320,31 @@
     <t>Concentration After Feeding</t>
   </si>
   <si>
-    <t>GLUCOSE ADDED (mL)</t>
-  </si>
-  <si>
     <t>FEED NEW SPC CONC. (mM)</t>
   </si>
   <si>
     <t>NEW SPC CONC. (mM)</t>
+  </si>
+  <si>
+    <t>CYSTINE CONC. (mM)</t>
+  </si>
+  <si>
+    <t>GLUCOSE CONC. (mM)</t>
+  </si>
+  <si>
+    <t>GLUTAMINE CONC. (mM)</t>
+  </si>
+  <si>
+    <t>FEED TYROSINE CONC. (mM)</t>
+  </si>
+  <si>
+    <t>example 1</t>
+  </si>
+  <si>
+    <t>example 2</t>
+  </si>
+  <si>
+    <t>GLUCOSE FEED ADDED (mL)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +378,11 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -553,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -699,6 +711,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,13 +1059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE2EEBC-76CD-9641-BDBB-B5D8CDAAE100}">
-  <dimension ref="A1:DN19"/>
+  <dimension ref="A1:DP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="179" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="AK7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AT23" sqref="AT23"/>
+    <sheetView zoomScale="119" zoomScaleNormal="179" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="DI18" sqref="DI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,548 +1076,555 @@
     <col min="4" max="4" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="10" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="5"/>
-    <col min="16" max="16" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="5"/>
-    <col min="20" max="20" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="43" width="13.5" style="5" customWidth="1"/>
-    <col min="44" max="69" width="13.6640625" style="5" customWidth="1"/>
-    <col min="70" max="94" width="13.5" style="5" customWidth="1"/>
-    <col min="95" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="5"/>
+    <col min="15" max="15" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="5"/>
+    <col min="19" max="19" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="45" width="13.5" style="5" customWidth="1"/>
+    <col min="46" max="71" width="13.6640625" style="5" customWidth="1"/>
+    <col min="72" max="96" width="13.5" style="5" customWidth="1"/>
+    <col min="97" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B3" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="37">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="48"/>
+      <c r="CI5" s="48"/>
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="35"/>
+      <c r="CS5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+    </row>
+    <row r="6" spans="1:120" ht="139" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="43" t="s">
+      <c r="AQ6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="44"/>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="44"/>
-      <c r="CI5" s="44"/>
-      <c r="CJ5" s="44"/>
-      <c r="CK5" s="44"/>
-      <c r="CL5" s="44"/>
-      <c r="CM5" s="44"/>
-      <c r="CN5" s="44"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="35"/>
-      <c r="CQ5" s="41" t="s">
+      <c r="AT6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="CH6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="CO6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CR6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="41"/>
-      <c r="CU5" s="41"/>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="41"/>
-      <c r="DG5" s="41"/>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
+      <c r="CW6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="CX6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="CY6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="CZ6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="DA6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="DB6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="DC6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="DD6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="DE6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="DF6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="DG6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="DH6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="DI6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="DL6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="DM6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="DO6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP6" s="30" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="6" spans="1:118" ht="152" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="BR6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="BT6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="BU6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="BW6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="BX6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="BY6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="BZ6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="CA6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="CB6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="CC6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="CD6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="CE6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="CG6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="CH6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="CI6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="CJ6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="CK6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="CL6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="CM6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="CN6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="CO6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="CP6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="CQ6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="CR6" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="CS6" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="CT6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="CV6" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="CW6" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="CX6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="CY6" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="CZ6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="DA6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="DB6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC6" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD6" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="DE6" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="DF6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="DH6" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="DI6" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="DJ6" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="DK6" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="DL6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="DM6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="DN6" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>0</v>
       </c>
@@ -1612,117 +1643,121 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.246</v>
       </c>
       <c r="I7" s="25">
+        <f>J7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <f>H7/K7*100</f>
         <v>0.246</v>
       </c>
-      <c r="J7" s="25">
-        <f>K7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <f>I7/L7*100</f>
-        <v>0.246</v>
+      <c r="K7" s="23">
+        <v>100</v>
       </c>
       <c r="L7" s="23">
-        <v>100</v>
-      </c>
-      <c r="M7" s="23">
         <v>7.54</v>
       </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="R7" s="25">
+        <v>363</v>
+      </c>
       <c r="S7" s="25">
-        <v>363</v>
-      </c>
-      <c r="T7" s="25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>7.6461927016679906E-2</v>
       </c>
       <c r="U7" s="2">
-        <v>7.6461927016679906E-2</v>
+        <v>2.711509217188699</v>
       </c>
       <c r="V7" s="2">
-        <v>2.711509217188699</v>
+        <v>3.6554527017671918</v>
       </c>
       <c r="W7" s="2">
-        <v>3.6554527017671918</v>
+        <v>1.5092115804755499</v>
       </c>
       <c r="X7" s="2">
-        <v>1.5092115804755499</v>
+        <v>3.2987069678508001</v>
       </c>
       <c r="Y7" s="2">
-        <v>3.2987069678508001</v>
+        <v>3.8229262123463101</v>
       </c>
       <c r="Z7" s="2">
-        <v>3.8229262123463101</v>
-      </c>
-      <c r="AA7" s="2">
         <v>4.3471454568418197</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AA7" s="44">
+        <v>0.58922240878929977</v>
+      </c>
+      <c r="AB7" s="44">
+        <v>27.502388888888888</v>
+      </c>
+      <c r="AC7" s="44">
+        <v>2.3714081434275642</v>
+      </c>
+      <c r="AD7" s="2">
         <v>0.79435680585184576</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>2.3324925965376186</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>0.88481489072900865</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>1.6063992565585794</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
         <v>3.3954019356617842</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AJ7" s="2">
         <v>2.9225413052240334</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AK7" s="2">
         <v>0.97672707237780321</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AL7" s="2">
         <v>1.594168944</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AM7" s="2">
         <v>0.73712209022775343</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AN7" s="8">
         <v>2.5101114296033344</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AO7" s="2">
         <v>4.6203254495095543</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AP7" s="2">
         <v>3.1539466554981663</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AQ7" s="11">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AR7" s="2">
         <v>1.4906404335608257</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>1.8344386938034827</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
       </c>
       <c r="AS7" s="2">
         <v>1.8344386938034827</v>
       </c>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>1.8344386938034827</v>
+      </c>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -1745,83 +1780,83 @@
       <c r="BO7" s="6"/>
       <c r="BP7" s="6"/>
       <c r="BQ7" s="6"/>
-      <c r="BR7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="12">
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="12">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT7" s="12">
+      <c r="BV7" s="12">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU7" s="12">
+      <c r="BW7" s="12">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV7" s="12">
+      <c r="BX7" s="12">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW7" s="12">
+      <c r="BY7" s="12">
         <v>400</v>
       </c>
-      <c r="BX7" s="12">
+      <c r="BZ7" s="12">
         <v>200</v>
       </c>
-      <c r="BY7" s="12">
+      <c r="CA7" s="12">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="12">
-        <v>0</v>
-      </c>
       <c r="CB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="12">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="12">
+      <c r="CE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="12">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE7" s="12">
+      <c r="CG7" s="12">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF7" s="12">
+      <c r="CH7" s="12">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="12">
+      <c r="CI7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="12">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI7" s="12">
+      <c r="CK7" s="12">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ7" s="12">
+      <c r="CL7" s="12">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK7" s="12">
+      <c r="CM7" s="12">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL7" s="12">
+      <c r="CN7" s="12">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="12">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO7" s="13">
+      <c r="CO7" s="12">
         <v>0</v>
       </c>
       <c r="CP7" s="12">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ7" s="31"/>
-      <c r="CR7" s="31"/>
+      <c r="CQ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="12">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS7" s="31"/>
       <c r="CT7" s="31"/>
       <c r="CU7" s="31"/>
@@ -1844,8 +1879,10 @@
       <c r="DL7" s="31"/>
       <c r="DM7" s="31"/>
       <c r="DN7" s="31"/>
+      <c r="DO7" s="31"/>
+      <c r="DP7" s="31"/>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <f t="shared" ref="A8:A19" si="0">A7+1</f>
         <v>1</v>
@@ -1865,119 +1902,123 @@
       <c r="F8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.54200000000000004</v>
       </c>
       <c r="I8" s="29">
-        <v>0.54200000000000004</v>
+        <f t="shared" ref="I8:I19" si="1">J8-H8</f>
+        <v>5.4747474747475211E-3</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" ref="J8:J19" si="1">K8-I8</f>
-        <v>5.4747474747475211E-3</v>
-      </c>
-      <c r="K8" s="29">
-        <f t="shared" ref="K8:K19" si="2">I8/L8*100</f>
+        <f t="shared" ref="J8:J19" si="2">H8/K8*100</f>
         <v>0.54747474747474756</v>
       </c>
+      <c r="K8" s="28">
+        <v>99</v>
+      </c>
       <c r="L8" s="28">
-        <v>99</v>
-      </c>
-      <c r="M8" s="28">
         <v>7.39</v>
       </c>
+      <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26">
+      <c r="O8" s="26">
         <v>0.41899999999999998</v>
       </c>
+      <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="R8" s="29">
+        <v>349</v>
+      </c>
       <c r="S8" s="29">
-        <v>349</v>
-      </c>
-      <c r="T8" s="29">
         <v>1.0837813533939622</v>
       </c>
+      <c r="T8" s="1">
+        <v>0.19595374924303188</v>
+      </c>
       <c r="U8" s="1">
-        <v>0.19595374924303188</v>
+        <v>2.7289140518912096</v>
       </c>
       <c r="V8" s="1">
-        <v>2.7289140518912096</v>
+        <v>3.6937780844074162</v>
       </c>
       <c r="W8" s="1">
-        <v>3.6937780844074162</v>
+        <v>1.5771286074872763</v>
       </c>
       <c r="X8" s="1">
-        <v>1.5771286074872763</v>
+        <v>3.3260407750694698</v>
       </c>
       <c r="Y8" s="1">
-        <v>3.3260407750694698</v>
+        <v>3.83687963579436</v>
       </c>
       <c r="Z8" s="1">
-        <v>3.83687963579436</v>
-      </c>
-      <c r="AA8" s="1">
         <v>4.3477184965192501</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AA8" s="43">
+        <v>0.55314490748646117</v>
+      </c>
+      <c r="AB8" s="43">
+        <v>25.426547242939112</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>1.9725620920361557</v>
+      </c>
+      <c r="AD8" s="1">
         <v>0.90151991657611119</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AE8" s="1">
         <v>2.3903471280745632</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <v>0.86446916056772383</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AG8" s="1">
         <v>1.6113425683433062</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <v>2.9307274631641103</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>3.3792832375615105</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AJ8" s="1">
         <v>2.9418901249472276</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8" s="1">
         <v>0.96873240861081933</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>2.101163203</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AM8" s="1">
         <v>0.7424783462900566</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AN8" s="8">
         <v>2.5134102870098518</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AO8" s="1">
         <v>4.5964075727212119</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AP8" s="1">
         <v>3.2224774046246911</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AQ8" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AR8" s="1">
         <v>1.539198047885167</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>1.8459482231642248</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0</v>
       </c>
       <c r="AS8" s="1">
         <v>1.8459482231642248</v>
       </c>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1.8459482231642248</v>
+      </c>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
@@ -2000,83 +2041,83 @@
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
       <c r="BQ8" s="7"/>
-      <c r="BR8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="3">
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT8" s="3">
+      <c r="BV8" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU8" s="3">
+      <c r="BW8" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BX8" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="BY8" s="3">
         <v>400</v>
       </c>
-      <c r="BX8" s="3">
+      <c r="BZ8" s="3">
         <v>200</v>
       </c>
-      <c r="BY8" s="3">
+      <c r="CA8" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="3">
-        <v>0</v>
-      </c>
       <c r="CB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="3">
+      <c r="CE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE8" s="3">
+      <c r="CG8" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF8" s="3">
+      <c r="CH8" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="3">
+      <c r="CI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI8" s="3">
+      <c r="CK8" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ8" s="3">
+      <c r="CL8" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK8" s="3">
+      <c r="CM8" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL8" s="3">
+      <c r="CN8" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO8" s="10">
+      <c r="CO8" s="3">
         <v>0</v>
       </c>
       <c r="CP8" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="32"/>
+      <c r="CQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS8" s="32"/>
       <c r="CT8" s="32"/>
       <c r="CU8" s="32"/>
@@ -2099,8 +2140,10 @@
       <c r="DL8" s="32"/>
       <c r="DM8" s="32"/>
       <c r="DN8" s="32"/>
+      <c r="DO8" s="32"/>
+      <c r="DP8" s="32"/>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2120,119 +2163,123 @@
       <c r="F9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0</v>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.94</v>
       </c>
       <c r="I9" s="29">
-        <v>0.94</v>
-      </c>
-      <c r="J9" s="29">
         <f t="shared" si="1"/>
         <v>5.6740442655934809E-3</v>
       </c>
-      <c r="K9" s="29">
+      <c r="J9" s="29">
         <f t="shared" si="2"/>
         <v>0.94567404426559343</v>
       </c>
+      <c r="K9" s="28">
+        <v>99.4</v>
+      </c>
       <c r="L9" s="28">
-        <v>99.4</v>
-      </c>
-      <c r="M9" s="28">
         <v>7.28</v>
       </c>
+      <c r="M9" s="26"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26">
+      <c r="O9" s="26">
         <v>0.35981874142819009</v>
       </c>
+      <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="29">
+        <v>345</v>
+      </c>
       <c r="S9" s="29">
-        <v>345</v>
-      </c>
-      <c r="T9" s="29">
         <v>1.7707139870843496</v>
       </c>
+      <c r="T9" s="1">
+        <v>0.31252353313677161</v>
+      </c>
       <c r="U9" s="1">
-        <v>0.31252353313677161</v>
+        <v>2.7491435044610353</v>
       </c>
       <c r="V9" s="1">
-        <v>2.7491435044610353</v>
+        <v>3.7034550114540341</v>
       </c>
       <c r="W9" s="1">
-        <v>3.7034550114540341</v>
+        <v>1.6366201537906375</v>
       </c>
       <c r="X9" s="1">
-        <v>1.6366201537906375</v>
+        <v>3.3320858929492698</v>
       </c>
       <c r="Y9" s="1">
-        <v>3.3320858929492698</v>
+        <v>3.82474602984473</v>
       </c>
       <c r="Z9" s="1">
-        <v>3.82474602984473</v>
-      </c>
-      <c r="AA9" s="1">
         <v>4.3174061667401897</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AA9" s="43">
+        <v>0.52486953219131804</v>
+      </c>
+      <c r="AB9" s="43">
+        <v>23.974880573733945</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>1.5946714658830339</v>
+      </c>
+      <c r="AD9" s="1">
         <v>1.047754658713991</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>2.4787807547250966</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>0.82469358291131312</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <v>1.6188277982726513</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>6.8900560797677288</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>3.3753277288252468</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>2.9227037311976494</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>0.95890021108056467</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>2.5608856740000001</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>0.73470583130394718</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AN9" s="8">
         <v>2.5173911766727057</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AO9" s="1">
         <v>4.5289298536887683</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AP9" s="1">
         <v>3.2856664352320077</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AQ9" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AR9" s="1">
         <v>1.4917804986280718</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>1.8489617245533294</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
       </c>
       <c r="AS9" s="1">
         <v>1.8489617245533294</v>
       </c>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>1.8489617245533294</v>
+      </c>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
@@ -2255,83 +2302,83 @@
       <c r="BO9" s="7"/>
       <c r="BP9" s="7"/>
       <c r="BQ9" s="7"/>
-      <c r="BR9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="3">
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT9" s="3">
+      <c r="BV9" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU9" s="3">
+      <c r="BW9" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV9" s="3">
+      <c r="BX9" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW9" s="3">
+      <c r="BY9" s="3">
         <v>400</v>
       </c>
-      <c r="BX9" s="3">
+      <c r="BZ9" s="3">
         <v>200</v>
       </c>
-      <c r="BY9" s="3">
+      <c r="CA9" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="3">
-        <v>0</v>
-      </c>
       <c r="CB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="3">
+      <c r="CE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE9" s="3">
+      <c r="CG9" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF9" s="3">
+      <c r="CH9" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="3">
+      <c r="CI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI9" s="3">
+      <c r="CK9" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ9" s="3">
+      <c r="CL9" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK9" s="3">
+      <c r="CM9" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL9" s="3">
+      <c r="CN9" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO9" s="10">
+      <c r="CO9" s="3">
         <v>0</v>
       </c>
       <c r="CP9" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
+      <c r="CQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS9" s="32"/>
       <c r="CT9" s="32"/>
       <c r="CU9" s="32"/>
@@ -2354,8 +2401,10 @@
       <c r="DL9" s="32"/>
       <c r="DM9" s="32"/>
       <c r="DN9" s="32"/>
+      <c r="DO9" s="32"/>
+      <c r="DP9" s="32"/>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2375,119 +2424,123 @@
       <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.43</v>
       </c>
       <c r="I10" s="29">
-        <v>1.43</v>
-      </c>
-      <c r="J10" s="29">
         <f t="shared" si="1"/>
         <v>1.1532258064516077E-2</v>
       </c>
-      <c r="K10" s="29">
+      <c r="J10" s="29">
         <f t="shared" si="2"/>
         <v>1.441532258064516</v>
       </c>
+      <c r="K10" s="28">
+        <v>99.2</v>
+      </c>
       <c r="L10" s="28">
-        <v>99.2</v>
-      </c>
-      <c r="M10" s="28">
         <v>7.17</v>
       </c>
+      <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26">
+      <c r="O10" s="26">
         <v>0.33363074997383863</v>
       </c>
+      <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="29">
+        <v>348</v>
+      </c>
       <c r="S10" s="29">
-        <v>348</v>
-      </c>
-      <c r="T10" s="29">
         <v>2.7156864658976447</v>
       </c>
+      <c r="T10" s="1">
+        <v>0.42848595234369125</v>
+      </c>
       <c r="U10" s="1">
-        <v>0.42848595234369125</v>
+        <v>2.731908387302282</v>
       </c>
       <c r="V10" s="1">
-        <v>2.731908387302282</v>
+        <v>3.6818178242372395</v>
       </c>
       <c r="W10" s="1">
-        <v>3.6818178242372395</v>
+        <v>1.6689911923545755</v>
       </c>
       <c r="X10" s="1">
-        <v>1.6689911923545755</v>
+        <v>3.2956571283013498</v>
       </c>
       <c r="Y10" s="1">
-        <v>3.2956571283013498</v>
+        <v>3.7627996439981102</v>
       </c>
       <c r="Z10" s="1">
-        <v>3.7627996439981102</v>
-      </c>
-      <c r="AA10" s="1">
         <v>4.2299421596948701</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AA10" s="43">
+        <v>0.50386422035016931</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>21.466012738492722</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>1.2751367581620883</v>
+      </c>
+      <c r="AD10" s="1">
         <v>1.1574115349606136</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AE10" s="1">
         <v>2.5375153175465406</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AF10" s="1">
         <v>0.80790727342614599</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AG10" s="1">
         <v>1.6093219141902695</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AH10" s="1">
         <v>8.9363115563543634</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AI10" s="1">
         <v>3.3501650025542822</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AJ10" s="1">
         <v>2.9295654812241172</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <v>0.9631056372784309</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AL10" s="1">
         <v>3.1934062499999998</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AM10" s="1">
         <v>0.73102647039570401</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AN10" s="8">
         <v>2.5136869320380693</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AO10" s="1">
         <v>4.4431861561438408</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AP10" s="1">
         <v>3.3253894150667036</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AQ10" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AR10" s="1">
         <v>1.5329469305921741</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>1.8398875071376599</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>0</v>
       </c>
       <c r="AS10" s="1">
         <v>1.8398875071376599</v>
       </c>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>1.8398875071376599</v>
+      </c>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
@@ -2510,83 +2563,83 @@
       <c r="BO10" s="7"/>
       <c r="BP10" s="7"/>
       <c r="BQ10" s="7"/>
-      <c r="BR10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="3">
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT10" s="3">
+      <c r="BV10" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU10" s="3">
+      <c r="BW10" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV10" s="3">
+      <c r="BX10" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW10" s="3">
+      <c r="BY10" s="3">
         <v>400</v>
       </c>
-      <c r="BX10" s="3">
+      <c r="BZ10" s="3">
         <v>200</v>
       </c>
-      <c r="BY10" s="3">
+      <c r="CA10" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="3">
-        <v>0</v>
-      </c>
       <c r="CB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="3">
+      <c r="CE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE10" s="3">
+      <c r="CG10" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF10" s="3">
+      <c r="CH10" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="3">
+      <c r="CI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI10" s="3">
+      <c r="CK10" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ10" s="3">
+      <c r="CL10" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK10" s="3">
+      <c r="CM10" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL10" s="3">
+      <c r="CN10" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO10" s="10">
+      <c r="CO10" s="3">
         <v>0</v>
       </c>
       <c r="CP10" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ10" s="32"/>
-      <c r="CR10" s="32"/>
+      <c r="CQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS10" s="32"/>
       <c r="CT10" s="32"/>
       <c r="CU10" s="32"/>
@@ -2609,8 +2662,10 @@
       <c r="DL10" s="32"/>
       <c r="DM10" s="32"/>
       <c r="DN10" s="32"/>
+      <c r="DO10" s="32"/>
+      <c r="DP10" s="32"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2630,119 +2685,123 @@
       <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>3.11</v>
       </c>
       <c r="I11" s="29">
-        <v>3.11</v>
-      </c>
-      <c r="J11" s="29">
         <f t="shared" si="1"/>
         <v>7.6475409836065822E-2</v>
       </c>
-      <c r="K11" s="29">
+      <c r="J11" s="29">
         <f t="shared" si="2"/>
         <v>3.1864754098360657</v>
       </c>
+      <c r="K11" s="28">
+        <v>97.6</v>
+      </c>
       <c r="L11" s="28">
-        <v>97.6</v>
-      </c>
-      <c r="M11" s="28">
         <v>6.88</v>
       </c>
+      <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26">
+      <c r="O11" s="26">
         <v>0.32849474605151852</v>
       </c>
+      <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="R11" s="29">
+        <v>344</v>
+      </c>
       <c r="S11" s="29">
-        <v>344</v>
-      </c>
-      <c r="T11" s="29">
         <v>4.3548116936097419</v>
       </c>
+      <c r="T11" s="1">
+        <v>0.70490244144196923</v>
+      </c>
       <c r="U11" s="1">
-        <v>0.70490244144196923</v>
+        <v>2.6981436137831789</v>
       </c>
       <c r="V11" s="1">
-        <v>2.6981436137831789</v>
+        <v>3.6358644176064896</v>
       </c>
       <c r="W11" s="1">
-        <v>3.6358644176064896</v>
+        <v>1.7371464762610955</v>
       </c>
       <c r="X11" s="1">
-        <v>1.7371464762610955</v>
+        <v>3.2026274643433599</v>
       </c>
       <c r="Y11" s="1">
-        <v>3.2026274643433599</v>
+        <v>3.6060727551714198</v>
       </c>
       <c r="Z11" s="1">
-        <v>3.6060727551714198</v>
-      </c>
-      <c r="AA11" s="1">
         <v>4.0095180459994904</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AA11" s="43">
+        <v>0.47273606133588347</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>17.376941753843557</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>0.70330691884194707</v>
+      </c>
+      <c r="AD11" s="1">
         <v>1.3388167324505007</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AE11" s="1">
         <v>2.633448909004672</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AF11" s="1">
         <v>0.74884318114944093</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AG11" s="1">
         <v>1.615084805215143</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AH11" s="1">
         <v>16.143501769968584</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AI11" s="1">
         <v>3.2954280849329751</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AJ11" s="1">
         <v>2.9008501634543409</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AK11" s="1">
         <v>0.93495786164905548</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AL11" s="1">
         <v>4.1231191730000001</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AM11" s="1">
         <v>0.70738002316921833</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AN11" s="8">
         <v>2.5120632302459951</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AO11" s="1">
         <v>4.2106008756779003</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AP11" s="1">
         <v>3.3105259225449548</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AQ11" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AR11" s="1">
         <v>1.5000457877019093</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>1.8158515526672732</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>0</v>
       </c>
       <c r="AS11" s="1">
         <v>1.8158515526672732</v>
       </c>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1.8158515526672732</v>
+      </c>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
@@ -2765,83 +2824,83 @@
       <c r="BO11" s="7"/>
       <c r="BP11" s="7"/>
       <c r="BQ11" s="7"/>
-      <c r="BR11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="3">
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT11" s="3">
+      <c r="BV11" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU11" s="3">
+      <c r="BW11" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV11" s="3">
+      <c r="BX11" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW11" s="3">
+      <c r="BY11" s="3">
         <v>400</v>
       </c>
-      <c r="BX11" s="3">
+      <c r="BZ11" s="3">
         <v>200</v>
       </c>
-      <c r="BY11" s="3">
+      <c r="CA11" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="3">
-        <v>0</v>
-      </c>
       <c r="CB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC11" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="3">
+      <c r="CE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE11" s="3">
+      <c r="CG11" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF11" s="3">
+      <c r="CH11" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="3">
+      <c r="CI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI11" s="3">
+      <c r="CK11" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ11" s="3">
+      <c r="CL11" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK11" s="3">
+      <c r="CM11" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL11" s="3">
+      <c r="CN11" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM11" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO11" s="10">
+      <c r="CO11" s="3">
         <v>0</v>
       </c>
       <c r="CP11" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ11" s="32"/>
-      <c r="CR11" s="32"/>
+      <c r="CQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS11" s="32"/>
       <c r="CT11" s="32"/>
       <c r="CU11" s="32"/>
@@ -2864,8 +2923,10 @@
       <c r="DL11" s="32"/>
       <c r="DM11" s="32"/>
       <c r="DN11" s="32"/>
+      <c r="DO11" s="32"/>
+      <c r="DP11" s="32"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2885,119 +2946,123 @@
       <c r="F12" s="28">
         <v>0.32750000000000001</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>4.3849999999999998</v>
       </c>
       <c r="I12" s="29">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="J12" s="29">
         <f t="shared" si="1"/>
         <v>0.15433747412008358</v>
       </c>
-      <c r="K12" s="29">
+      <c r="J12" s="29">
         <f t="shared" si="2"/>
         <v>4.5393374741200834</v>
       </c>
+      <c r="K12" s="28">
+        <v>96.6</v>
+      </c>
       <c r="L12" s="28">
-        <v>96.6</v>
-      </c>
-      <c r="M12" s="28">
         <v>6.77</v>
       </c>
+      <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26">
+      <c r="O12" s="26">
         <v>0.32</v>
       </c>
+      <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="R12" s="29">
+        <v>348</v>
+      </c>
       <c r="S12" s="29">
-        <v>348</v>
-      </c>
-      <c r="T12" s="29">
         <v>8.4888083309258633</v>
       </c>
+      <c r="T12" s="1">
+        <v>0.96161591953085801</v>
+      </c>
       <c r="U12" s="1">
-        <v>0.96161591953085801</v>
+        <v>2.7229348612043491</v>
       </c>
       <c r="V12" s="1">
-        <v>2.7229348612043491</v>
+        <v>3.5345654547628689</v>
       </c>
       <c r="W12" s="1">
-        <v>3.5345654547628689</v>
+        <v>1.7475102401136284</v>
       </c>
       <c r="X12" s="1">
-        <v>1.7475102401136284</v>
+        <v>3.0339850077296302</v>
       </c>
       <c r="Y12" s="1">
-        <v>3.0339850077296302</v>
+        <v>3.3509163632603198</v>
       </c>
       <c r="Z12" s="1">
-        <v>3.3509163632603198</v>
-      </c>
-      <c r="AA12" s="1">
         <v>3.6678477187910001</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AA12" s="43">
+        <v>0.45951582450448508</v>
+      </c>
+      <c r="AB12" s="43">
+        <v>15.011434866720444</v>
+      </c>
+      <c r="AC12" s="43">
+        <v>0.40816070243757463</v>
+      </c>
+      <c r="AD12" s="1">
         <v>1.4205757318866696</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AE12" s="1">
         <v>2.6782306820516886</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>0.72552218717914885</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AG12" s="1">
         <v>1.6204801900022348</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <v>18.649652864658417</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>3.280003000216055</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AJ12" s="1">
         <v>2.8626268477100467</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12" s="1">
         <v>0.9300800688024915</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>4.6011874229999998</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AM12" s="1">
         <v>0.6848989267871014</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AN12" s="8">
         <v>2.512832454126011</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AO12" s="1">
         <v>4.0870035929755906</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AP12" s="1">
         <v>3.4234207126221992</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AQ12" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AR12" s="1">
         <v>1.4983088994243878</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>1.7865878743197858</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>0</v>
       </c>
       <c r="AS12" s="1">
         <v>1.7865878743197858</v>
       </c>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1.7865878743197858</v>
+      </c>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
@@ -3020,83 +3085,83 @@
       <c r="BO12" s="7"/>
       <c r="BP12" s="7"/>
       <c r="BQ12" s="7"/>
-      <c r="BR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="3">
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT12" s="3">
+      <c r="BV12" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU12" s="3">
+      <c r="BW12" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV12" s="3">
+      <c r="BX12" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW12" s="3">
+      <c r="BY12" s="3">
         <v>400</v>
       </c>
-      <c r="BX12" s="3">
+      <c r="BZ12" s="3">
         <v>200</v>
       </c>
-      <c r="BY12" s="3">
+      <c r="CA12" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="3">
-        <v>0</v>
-      </c>
       <c r="CB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="3">
+      <c r="CE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE12" s="3">
+      <c r="CG12" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF12" s="3">
+      <c r="CH12" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="3">
+      <c r="CI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI12" s="3">
+      <c r="CK12" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ12" s="3">
+      <c r="CL12" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK12" s="3">
+      <c r="CM12" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL12" s="3">
+      <c r="CN12" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="3">
         <v>0</v>
       </c>
       <c r="CP12" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ12" s="32"/>
-      <c r="CR12" s="32"/>
+      <c r="CQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS12" s="32"/>
       <c r="CT12" s="32"/>
       <c r="CU12" s="32"/>
@@ -3119,8 +3184,10 @@
       <c r="DL12" s="32"/>
       <c r="DM12" s="32"/>
       <c r="DN12" s="32"/>
+      <c r="DO12" s="32"/>
+      <c r="DP12" s="32"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3140,119 +3207,123 @@
       <c r="F13" s="28">
         <v>0.32818750000000002</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>9.5399999999999991</v>
       </c>
       <c r="I13" s="29">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="J13" s="29">
         <f t="shared" si="1"/>
         <v>0.32556359875904839</v>
       </c>
-      <c r="K13" s="29">
+      <c r="J13" s="29">
         <f t="shared" si="2"/>
         <v>9.8655635987590475</v>
       </c>
+      <c r="K13" s="28">
+        <v>96.7</v>
+      </c>
       <c r="L13" s="28">
-        <v>96.7</v>
-      </c>
-      <c r="M13" s="28">
         <v>6.76</v>
       </c>
+      <c r="M13" s="26"/>
       <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26">
+      <c r="O13" s="26">
         <v>0.152</v>
       </c>
+      <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="R13" s="29">
+        <v>343</v>
+      </c>
       <c r="S13" s="29">
-        <v>343</v>
-      </c>
-      <c r="T13" s="29">
         <v>24.061854144702142</v>
       </c>
+      <c r="T13" s="1">
+        <v>2.1128819114897488</v>
+      </c>
       <c r="U13" s="1">
-        <v>2.1128819114897488</v>
+        <v>2.5696221134837933</v>
       </c>
       <c r="V13" s="1">
-        <v>2.5696221134837933</v>
+        <v>2.819506744977851</v>
       </c>
       <c r="W13" s="1">
-        <v>2.819506744977851</v>
+        <v>1.4129837478214116</v>
       </c>
       <c r="X13" s="1">
-        <v>1.4129837478214116</v>
+        <v>1.76629616456546</v>
       </c>
       <c r="Y13" s="1">
-        <v>1.76629616456546</v>
+        <v>1.58131517861437</v>
       </c>
       <c r="Z13" s="1">
-        <v>1.58131517861437</v>
-      </c>
-      <c r="AA13" s="1">
         <v>1.39633419266327</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AA13" s="43">
+        <v>0.34389271729916621</v>
+      </c>
+      <c r="AB13" s="43">
+        <v>15.546373291355277</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>0.1547772288742644</v>
+      </c>
+      <c r="AD13" s="1">
         <v>1.4099913663501495</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AE13" s="1">
         <v>2.5393871547127755</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>0.68583153760241788</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AG13" s="1">
         <v>1.5651878934875147</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <v>19.563292350935281</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AI13" s="1">
         <v>3.1256735559687692</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AJ13" s="1">
         <v>2.6893059775309283</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13" s="1">
         <v>0.83007504877160265</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AL13" s="1">
         <v>6.230516154</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AM13" s="1">
         <v>0.7092167717554716</v>
       </c>
-      <c r="AL13" s="8">
+      <c r="AN13" s="8">
         <v>2.5106769910734723</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AO13" s="1">
         <v>3.7660003978119589</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AP13" s="1">
         <v>3.5393244920551523</v>
       </c>
-      <c r="AO13" s="9">
+      <c r="AQ13" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AR13" s="1">
         <v>1.3175927554113496</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>1.8719438868012725</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>0</v>
       </c>
       <c r="AS13" s="1">
         <v>1.8719438868012725</v>
       </c>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1.8719438868012725</v>
+      </c>
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
@@ -3275,83 +3346,83 @@
       <c r="BO13" s="7"/>
       <c r="BP13" s="7"/>
       <c r="BQ13" s="7"/>
-      <c r="BR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="3">
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT13" s="3">
+      <c r="BV13" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU13" s="3">
+      <c r="BW13" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV13" s="3">
+      <c r="BX13" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW13" s="3">
+      <c r="BY13" s="3">
         <v>400</v>
       </c>
-      <c r="BX13" s="3">
+      <c r="BZ13" s="3">
         <v>200</v>
       </c>
-      <c r="BY13" s="3">
+      <c r="CA13" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="3">
-        <v>0</v>
-      </c>
       <c r="CB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="3">
+      <c r="CE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE13" s="3">
+      <c r="CG13" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF13" s="3">
+      <c r="CH13" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="3">
+      <c r="CI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI13" s="3">
+      <c r="CK13" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ13" s="3">
+      <c r="CL13" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK13" s="3">
+      <c r="CM13" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL13" s="3">
+      <c r="CN13" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="3">
         <v>0</v>
       </c>
       <c r="CP13" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ13" s="32"/>
-      <c r="CR13" s="32"/>
+      <c r="CQ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS13" s="32"/>
       <c r="CT13" s="32"/>
       <c r="CU13" s="32"/>
@@ -3374,8 +3445,10 @@
       <c r="DL13" s="32"/>
       <c r="DM13" s="32"/>
       <c r="DN13" s="32"/>
+      <c r="DO13" s="32"/>
+      <c r="DP13" s="32"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3395,119 +3468,123 @@
       <c r="F14" s="28">
         <v>0.28967406250000005</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>16.200000000000003</v>
       </c>
       <c r="I14" s="29">
-        <v>16.200000000000003</v>
-      </c>
-      <c r="J14" s="29">
         <f t="shared" si="1"/>
         <v>0.51826625386996739</v>
       </c>
-      <c r="K14" s="29">
+      <c r="J14" s="29">
         <f t="shared" si="2"/>
         <v>16.71826625386997</v>
       </c>
+      <c r="K14" s="28">
+        <v>96.9</v>
+      </c>
       <c r="L14" s="28">
-        <v>96.9</v>
-      </c>
-      <c r="M14" s="28">
         <v>6.85</v>
       </c>
+      <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26">
+      <c r="O14" s="26">
         <v>0.13600000000000004</v>
       </c>
+      <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
+      <c r="R14" s="29">
+        <v>338</v>
+      </c>
       <c r="S14" s="29">
-        <v>338</v>
-      </c>
-      <c r="T14" s="29">
         <v>56.620808377497163</v>
       </c>
+      <c r="T14" s="1">
+        <v>4.95162989298451</v>
+      </c>
       <c r="U14" s="1">
-        <v>4.95162989298451</v>
+        <v>2.4377076496460197</v>
       </c>
       <c r="V14" s="1">
-        <v>2.4377076496460197</v>
+        <v>1.3667378151432403</v>
       </c>
       <c r="W14" s="1">
-        <v>1.3667378151432403</v>
+        <v>0.8326054083690293</v>
       </c>
       <c r="X14" s="1">
-        <v>0.8326054083690293</v>
+        <v>-0.95984063055160596</v>
       </c>
       <c r="Y14" s="1">
-        <v>-0.95984063055160596</v>
+        <v>-2.3026449593865301</v>
       </c>
       <c r="Z14" s="1">
-        <v>-2.3026449593865301</v>
-      </c>
-      <c r="AA14" s="1">
         <v>-3.64544928822145</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AA14" s="43">
+        <v>0.21402664815660277</v>
+      </c>
+      <c r="AB14" s="43">
+        <v>13.641016990339555</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>6.3362935293955411E-2</v>
+      </c>
+      <c r="AD14" s="1">
         <v>0.93923162558840578</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AE14" s="1">
         <v>2.2122901946542428</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AF14" s="1">
         <v>0.67843145666474569</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AG14" s="1">
         <v>1.4713700793863878</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AH14" s="1">
         <v>18.512626830142985</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AI14" s="1">
         <v>2.879609893548301</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AJ14" s="1">
         <v>2.4372394009777927</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AK14" s="1">
         <v>0.69891477837276683</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AL14" s="1">
         <v>6.8912134739999997</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AM14" s="1">
         <v>0.76819822379981539</v>
       </c>
-      <c r="AL14" s="8">
+      <c r="AN14" s="8">
         <v>2.5114980993517766</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AO14" s="1">
         <v>3.5162573495475695</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AP14" s="1">
         <v>3.7014139708595648</v>
       </c>
-      <c r="AO14" s="9">
+      <c r="AQ14" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AR14" s="1">
         <v>1.0671139329541393</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>1.9927753521601972</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>0</v>
       </c>
       <c r="AS14" s="1">
         <v>1.9927753521601972</v>
       </c>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>1.9927753521601972</v>
+      </c>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
@@ -3530,83 +3607,83 @@
       <c r="BO14" s="7"/>
       <c r="BP14" s="7"/>
       <c r="BQ14" s="7"/>
-      <c r="BR14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS14" s="3">
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT14" s="3">
+      <c r="BV14" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU14" s="3">
+      <c r="BW14" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV14" s="3">
+      <c r="BX14" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW14" s="3">
+      <c r="BY14" s="3">
         <v>400</v>
       </c>
-      <c r="BX14" s="3">
+      <c r="BZ14" s="3">
         <v>200</v>
       </c>
-      <c r="BY14" s="3">
+      <c r="CA14" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA14" s="3">
-        <v>0</v>
-      </c>
       <c r="CB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD14" s="3">
+      <c r="CE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE14" s="3">
+      <c r="CG14" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF14" s="3">
+      <c r="CH14" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH14" s="3">
+      <c r="CI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI14" s="3">
+      <c r="CK14" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ14" s="3">
+      <c r="CL14" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK14" s="3">
+      <c r="CM14" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL14" s="3">
+      <c r="CN14" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN14" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO14" s="10">
+      <c r="CO14" s="3">
         <v>0</v>
       </c>
       <c r="CP14" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="32"/>
+      <c r="CQ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS14" s="32"/>
       <c r="CT14" s="32"/>
       <c r="CU14" s="32"/>
@@ -3629,8 +3706,10 @@
       <c r="DL14" s="32"/>
       <c r="DM14" s="32"/>
       <c r="DN14" s="32"/>
+      <c r="DO14" s="32"/>
+      <c r="DP14" s="32"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3650,119 +3729,123 @@
       <c r="F15" s="28">
         <v>0.29231265468750001</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>18.8</v>
       </c>
       <c r="I15" s="29">
-        <v>18.8</v>
-      </c>
-      <c r="J15" s="29">
         <f t="shared" si="1"/>
         <v>1.1787460148777917</v>
       </c>
-      <c r="K15" s="29">
+      <c r="J15" s="29">
         <f t="shared" si="2"/>
         <v>19.978746014877792</v>
       </c>
+      <c r="K15" s="28">
+        <v>94.1</v>
+      </c>
       <c r="L15" s="28">
-        <v>94.1</v>
-      </c>
-      <c r="M15" s="28">
         <v>7</v>
       </c>
+      <c r="M15" s="26"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26">
+      <c r="O15" s="26">
         <v>0.13511353740914939</v>
       </c>
+      <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="R15" s="29">
+        <v>325</v>
+      </c>
       <c r="S15" s="29">
-        <v>325</v>
-      </c>
-      <c r="T15" s="29">
         <v>61.835701127156462</v>
       </c>
+      <c r="T15" s="1">
+        <v>8.2425685629750962</v>
+      </c>
       <c r="U15" s="1">
-        <v>8.2425685629750962</v>
+        <v>2.307565971105292</v>
       </c>
       <c r="V15" s="1">
-        <v>2.307565971105292</v>
+        <v>3.3960139783844462E-2</v>
       </c>
       <c r="W15" s="1">
-        <v>3.3960139783844462E-2</v>
+        <v>0.17123657860599778</v>
       </c>
       <c r="X15" s="1">
-        <v>0.17123657860599778</v>
+        <v>-3.9330676329896299</v>
       </c>
       <c r="Y15" s="1">
-        <v>-3.9330676329896299</v>
+        <v>-6.5818278114325297</v>
       </c>
       <c r="Z15" s="1">
-        <v>-6.5818278114325297</v>
-      </c>
-      <c r="AA15" s="1">
         <v>-9.23058798987533</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AA15" s="43">
+        <v>6.5240722507381319E-2</v>
+      </c>
+      <c r="AB15" s="43">
+        <v>11.449430994015446</v>
+      </c>
+      <c r="AC15" s="43">
+        <v>5.3996757506675361E-2</v>
+      </c>
+      <c r="AD15" s="1">
         <v>0.30779644036066922</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AE15" s="1">
         <v>1.9760349951434468</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AF15" s="1">
         <v>0.68222904676666341</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AG15" s="1">
         <v>1.2667132157763745</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AH15" s="1">
         <v>16.769300583758994</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AI15" s="1">
         <v>2.5559135415348901</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AJ15" s="1">
         <v>2.3210117587635888</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AK15" s="1">
         <v>0.58717928973602795</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AL15" s="1">
         <v>6.8218297850000003</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AM15" s="1">
         <v>0.85016598636670715</v>
       </c>
-      <c r="AL15" s="8">
+      <c r="AN15" s="8">
         <v>2.5119792679417112</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AO15" s="1">
         <v>3.7129166555585593</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AP15" s="1">
         <v>3.6319098746694962</v>
       </c>
-      <c r="AO15" s="9">
+      <c r="AQ15" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AR15" s="1">
         <v>0.79076621578769624</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>1.9977931278683052</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>0</v>
       </c>
       <c r="AS15" s="1">
         <v>1.9977931278683052</v>
       </c>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>1.9977931278683052</v>
+      </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
@@ -3785,83 +3868,83 @@
       <c r="BO15" s="4"/>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
-      <c r="BR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="3">
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT15" s="3">
+      <c r="BV15" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU15" s="3">
+      <c r="BW15" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV15" s="3">
+      <c r="BX15" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW15" s="3">
+      <c r="BY15" s="3">
         <v>400</v>
       </c>
-      <c r="BX15" s="3">
+      <c r="BZ15" s="3">
         <v>200</v>
       </c>
-      <c r="BY15" s="3">
+      <c r="CA15" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="3">
-        <v>0</v>
-      </c>
       <c r="CB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="3">
+      <c r="CE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE15" s="3">
+      <c r="CG15" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF15" s="3">
+      <c r="CH15" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH15" s="3">
+      <c r="CI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI15" s="3">
+      <c r="CK15" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ15" s="3">
+      <c r="CL15" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK15" s="3">
+      <c r="CM15" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL15" s="3">
+      <c r="CN15" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN15" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO15" s="10">
+      <c r="CO15" s="3">
         <v>0</v>
       </c>
       <c r="CP15" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ15" s="33"/>
-      <c r="CR15" s="33"/>
+      <c r="CQ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS15" s="33"/>
       <c r="CT15" s="33"/>
       <c r="CU15" s="33"/>
@@ -3884,8 +3967,10 @@
       <c r="DL15" s="33"/>
       <c r="DM15" s="33"/>
       <c r="DN15" s="33"/>
+      <c r="DO15" s="33"/>
+      <c r="DP15" s="33"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3905,119 +3990,123 @@
       <c r="F16" s="28">
         <v>0.29504359760156251</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>20.3</v>
       </c>
       <c r="I16" s="29">
-        <v>20.3</v>
-      </c>
-      <c r="J16" s="29">
         <f t="shared" si="1"/>
         <v>1.4344753747323331</v>
       </c>
-      <c r="K16" s="29">
+      <c r="J16" s="29">
         <f t="shared" si="2"/>
         <v>21.734475374732334</v>
       </c>
+      <c r="K16" s="28">
+        <v>93.4</v>
+      </c>
       <c r="L16" s="28">
-        <v>93.4</v>
-      </c>
-      <c r="M16" s="28">
         <v>6.73</v>
       </c>
+      <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26">
+      <c r="O16" s="26">
         <v>0.11047999999999999</v>
       </c>
+      <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="R16" s="29">
+        <v>332</v>
+      </c>
       <c r="S16" s="29">
-        <v>332</v>
-      </c>
-      <c r="T16" s="29">
         <v>113.18532757418016</v>
       </c>
+      <c r="T16" s="1">
+        <v>8.6779726253818072</v>
+      </c>
       <c r="U16" s="1">
-        <v>8.6779726253818072</v>
+        <v>2.2461081038786053</v>
       </c>
       <c r="V16" s="1">
-        <v>2.2461081038786053</v>
+        <v>4.4538289539620239E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>4.4538289539620239E-2</v>
+        <v>6.1328736751091482E-2</v>
       </c>
       <c r="X16" s="1">
-        <v>6.1328736751091482E-2</v>
+        <v>-4.2553884311700498</v>
       </c>
       <c r="Y16" s="1">
-        <v>-4.2553884311700498</v>
+        <v>-7.0605385791931496</v>
       </c>
       <c r="Z16" s="1">
-        <v>-7.0605385791931496</v>
-      </c>
-      <c r="AA16" s="1">
         <v>-9.8656887272162503</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
+      <c r="AA16" s="43">
+        <v>0.1069505768522218</v>
+      </c>
+      <c r="AB16" s="43">
+        <v>7.163265709739723</v>
+      </c>
+      <c r="AC16" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
         <v>1.6296853587141176</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AF16" s="1">
         <v>0.73669932145388028</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AG16" s="1">
         <v>1.1100160422270209</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AH16" s="1">
         <v>18.200412267308504</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AI16" s="1">
         <v>2.1427912066055517</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AJ16" s="1">
         <v>2.1673322743558452</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AK16" s="1">
         <v>0.4825661137147883</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AL16" s="1">
         <v>7.698033294</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AM16" s="1">
         <v>0.95844019991714025</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AN16" s="8">
         <v>2.5118981043809034</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AO16" s="1">
         <v>3.9431803421145011</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AP16" s="1">
         <v>3.8422311147797266</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AQ16" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AR16" s="1">
         <v>0.59328404011197566</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>2.1249027814095478</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0</v>
       </c>
       <c r="AS16" s="1">
         <v>2.1249027814095478</v>
       </c>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>2.1249027814095478</v>
+      </c>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
@@ -4040,83 +4129,83 @@
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
-      <c r="BR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS16" s="3">
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT16" s="3">
+      <c r="BV16" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU16" s="3">
+      <c r="BW16" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV16" s="3">
+      <c r="BX16" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW16" s="3">
+      <c r="BY16" s="3">
         <v>400</v>
       </c>
-      <c r="BX16" s="3">
+      <c r="BZ16" s="3">
         <v>200</v>
       </c>
-      <c r="BY16" s="3">
+      <c r="CA16" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA16" s="3">
-        <v>0</v>
-      </c>
       <c r="CB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD16" s="3">
+      <c r="CE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE16" s="3">
+      <c r="CG16" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF16" s="3">
+      <c r="CH16" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH16" s="3">
+      <c r="CI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI16" s="3">
+      <c r="CK16" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ16" s="3">
+      <c r="CL16" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK16" s="3">
+      <c r="CM16" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL16" s="3">
+      <c r="CN16" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN16" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO16" s="10">
+      <c r="CO16" s="3">
         <v>0</v>
       </c>
       <c r="CP16" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ16" s="33"/>
-      <c r="CR16" s="33"/>
+      <c r="CQ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS16" s="33"/>
       <c r="CT16" s="33"/>
       <c r="CU16" s="33"/>
@@ -4139,8 +4228,10 @@
       <c r="DL16" s="33"/>
       <c r="DM16" s="33"/>
       <c r="DN16" s="33"/>
+      <c r="DO16" s="33"/>
+      <c r="DP16" s="33"/>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4160,119 +4251,123 @@
       <c r="F17" s="28">
         <v>0.29787012351761721</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>18.7</v>
       </c>
       <c r="I17" s="29">
-        <v>18.7</v>
-      </c>
-      <c r="J17" s="29">
         <f t="shared" si="1"/>
         <v>3.4563981042654035</v>
       </c>
-      <c r="K17" s="29">
+      <c r="J17" s="29">
         <f t="shared" si="2"/>
         <v>22.156398104265403</v>
       </c>
+      <c r="K17" s="28">
+        <v>84.4</v>
+      </c>
       <c r="L17" s="28">
-        <v>84.4</v>
-      </c>
-      <c r="M17" s="28">
         <v>6.42</v>
       </c>
+      <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26">
+      <c r="O17" s="26">
         <v>7.7413849323293801E-2</v>
       </c>
+      <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="R17" s="29">
+        <v>327</v>
+      </c>
       <c r="S17" s="29">
-        <v>327</v>
-      </c>
-      <c r="T17" s="29">
         <v>140.02051981352034</v>
       </c>
+      <c r="T17" s="1">
+        <v>7.8012862160895207</v>
+      </c>
       <c r="U17" s="1">
-        <v>7.8012862160895207</v>
+        <v>2.2312381648603905</v>
       </c>
       <c r="V17" s="1">
-        <v>2.2312381648603905</v>
+        <v>5.2380707890302469E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>5.2380707890302469E-2</v>
+        <v>5.9284808296430701E-2</v>
       </c>
       <c r="X17" s="1">
-        <v>5.9284808296430701E-2</v>
+        <v>-3.81516794580314</v>
       </c>
       <c r="Y17" s="1">
-        <v>-3.81516794580314</v>
+        <v>-6.3556541138381402</v>
       </c>
       <c r="Z17" s="1">
-        <v>-6.3556541138381402</v>
-      </c>
-      <c r="AA17" s="1">
         <v>-8.8961402818730395</v>
       </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
+      <c r="AA17" s="43">
+        <v>9.8897551212448795E-2</v>
+      </c>
+      <c r="AB17" s="43">
+        <v>1.6640646024665666</v>
+      </c>
+      <c r="AC17" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
         <v>1.3871063730289694</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AF17" s="1">
         <v>0.75034614431937685</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AG17" s="1">
         <v>1.022991107054819</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AH17" s="1">
         <v>20.639457536870228</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AI17" s="1">
         <v>1.9579779905791723</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AJ17" s="1">
         <v>2.1343952763417859</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AK17" s="1">
         <v>0.4097923743292084</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AL17" s="1">
         <v>10.079585590000001</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AM17" s="1">
         <v>1.053262337353301</v>
       </c>
-      <c r="AL17" s="8">
+      <c r="AN17" s="8">
         <v>2.5124460122383456</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AO17" s="1">
         <v>4.2924973874682832</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AP17" s="1">
         <v>3.9176047733143267</v>
       </c>
-      <c r="AO17" s="9">
+      <c r="AQ17" s="9">
         <v>0.38732610519511396</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AR17" s="1">
         <v>0.45656802055380713</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>2.2033692817845343</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0</v>
       </c>
       <c r="AS17" s="1">
         <v>2.2033692817845343</v>
       </c>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>2.2033692817845343</v>
+      </c>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
@@ -4295,83 +4390,83 @@
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
-      <c r="BR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS17" s="3">
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT17" s="3">
+      <c r="BV17" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU17" s="3">
+      <c r="BW17" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV17" s="3">
+      <c r="BX17" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW17" s="3">
+      <c r="BY17" s="3">
         <v>400</v>
       </c>
-      <c r="BX17" s="3">
+      <c r="BZ17" s="3">
         <v>200</v>
       </c>
-      <c r="BY17" s="3">
+      <c r="CA17" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="3">
-        <v>0</v>
-      </c>
       <c r="CB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD17" s="3">
+      <c r="CE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE17" s="3">
+      <c r="CG17" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF17" s="3">
+      <c r="CH17" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH17" s="3">
+      <c r="CI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI17" s="3">
+      <c r="CK17" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ17" s="3">
+      <c r="CL17" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK17" s="3">
+      <c r="CM17" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL17" s="3">
+      <c r="CN17" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO17" s="10">
+      <c r="CO17" s="3">
         <v>0</v>
       </c>
       <c r="CP17" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ17" s="33"/>
-      <c r="CR17" s="33"/>
+      <c r="CQ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS17" s="33"/>
       <c r="CT17" s="33"/>
       <c r="CU17" s="33"/>
@@ -4394,8 +4489,10 @@
       <c r="DL17" s="33"/>
       <c r="DM17" s="33"/>
       <c r="DN17" s="33"/>
+      <c r="DO17" s="33"/>
+      <c r="DP17" s="33"/>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4415,119 +4512,123 @@
       <c r="F18" s="28">
         <v>0.30079557784073385</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0</v>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>17.899999999999999</v>
       </c>
       <c r="I18" s="29">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="J18" s="29">
         <f t="shared" si="1"/>
         <v>6.8579529737206073</v>
       </c>
-      <c r="K18" s="29">
+      <c r="J18" s="29">
         <f t="shared" si="2"/>
         <v>24.757952973720606</v>
       </c>
+      <c r="K18" s="28">
+        <v>72.3</v>
+      </c>
       <c r="L18" s="28">
-        <v>72.3</v>
-      </c>
-      <c r="M18" s="28">
         <v>6.77</v>
       </c>
+      <c r="M18" s="26"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26">
+      <c r="O18" s="26">
         <v>0.10417364313118646</v>
       </c>
+      <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="R18" s="29">
+        <v>317</v>
+      </c>
       <c r="S18" s="29">
-        <v>317</v>
-      </c>
-      <c r="T18" s="29">
         <v>170.90826529097964</v>
       </c>
+      <c r="T18" s="1">
+        <v>7.1458786449179614</v>
+      </c>
       <c r="U18" s="1">
-        <v>7.1458786449179614</v>
+        <v>2.2355581006507372</v>
       </c>
       <c r="V18" s="1">
-        <v>2.2355581006507372</v>
+        <v>5.6752345579026538E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>5.6752345579026538E-2</v>
+        <v>7.246867505554562E-2</v>
       </c>
       <c r="X18" s="1">
-        <v>7.246867505554562E-2</v>
+        <v>7.8907359598154633E-2</v>
       </c>
       <c r="Y18" s="1">
+        <v>0.78387369065313339</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4.0653030354979088E-2</v>
+      </c>
+      <c r="AA18" s="43">
         <v>7.8907359598154633E-2</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AB18" s="43">
         <v>0.78387369065313339</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AC18" s="43">
         <v>4.0653030354979088E-2</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AD18" s="1">
         <v>5.1834686815475053E-2</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AE18" s="1">
         <v>1.157300899783295</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AF18" s="1">
         <v>0.76844773376229392</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AG18" s="1">
         <v>0.99922828731304703</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AH18" s="1">
         <v>16.661507712428062</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AI18" s="1">
         <v>1.9177481811190105</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AJ18" s="1">
         <v>2.1587920561701313</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AK18" s="1">
         <v>0.36928886937216954</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AL18" s="1">
         <v>9.8645141840000008</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AM18" s="1">
         <v>1.1653213924218826</v>
       </c>
-      <c r="AL18" s="8">
+      <c r="AN18" s="8">
         <v>2.5194243561641336</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AO18" s="1">
         <v>4.5002146936687213</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AP18" s="1">
         <v>4.0284893348608684</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AQ18" s="9">
         <v>0.38732610519511401</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AR18" s="1">
         <v>0.29371775681177281</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>2.3198271404555855</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
       </c>
       <c r="AS18" s="1">
         <v>2.3198271404555855</v>
       </c>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>2.3198271404555855</v>
+      </c>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
@@ -4550,83 +4651,83 @@
       <c r="BO18" s="4"/>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
-      <c r="BR18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS18" s="3">
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT18" s="3">
+      <c r="BV18" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU18" s="3">
+      <c r="BW18" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV18" s="3">
+      <c r="BX18" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW18" s="3">
+      <c r="BY18" s="3">
         <v>400</v>
       </c>
-      <c r="BX18" s="3">
+      <c r="BZ18" s="3">
         <v>200</v>
       </c>
-      <c r="BY18" s="3">
+      <c r="CA18" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA18" s="3">
-        <v>0</v>
-      </c>
       <c r="CB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD18" s="3">
+      <c r="CE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE18" s="3">
+      <c r="CG18" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF18" s="3">
+      <c r="CH18" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH18" s="3">
+      <c r="CI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI18" s="3">
+      <c r="CK18" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ18" s="3">
+      <c r="CL18" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK18" s="3">
+      <c r="CM18" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL18" s="3">
+      <c r="CN18" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM18" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN18" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO18" s="10">
+      <c r="CO18" s="3">
         <v>0</v>
       </c>
       <c r="CP18" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ18" s="33"/>
-      <c r="CR18" s="33"/>
+      <c r="CQ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS18" s="33"/>
       <c r="CT18" s="33"/>
       <c r="CU18" s="33"/>
@@ -4649,8 +4750,10 @@
       <c r="DL18" s="33"/>
       <c r="DM18" s="33"/>
       <c r="DN18" s="33"/>
+      <c r="DO18" s="33"/>
+      <c r="DP18" s="33"/>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4670,119 +4773,123 @@
       <c r="F19" s="28">
         <v>0</v>
       </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0</v>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>14.2</v>
       </c>
       <c r="I19" s="29">
-        <v>14.2</v>
-      </c>
-      <c r="J19" s="29">
         <f t="shared" si="1"/>
         <v>7.250151057401812</v>
       </c>
-      <c r="K19" s="29">
+      <c r="J19" s="29">
         <f t="shared" si="2"/>
         <v>21.450151057401811</v>
       </c>
+      <c r="K19" s="28">
+        <v>66.2</v>
+      </c>
       <c r="L19" s="28">
-        <v>66.2</v>
-      </c>
-      <c r="M19" s="28">
         <v>6.86</v>
       </c>
+      <c r="M19" s="26"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26">
+      <c r="O19" s="26">
         <v>0.13216193953743124</v>
       </c>
+      <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="R19" s="29">
+        <v>321</v>
+      </c>
       <c r="S19" s="29">
-        <v>321</v>
-      </c>
-      <c r="T19" s="29">
         <v>187.92388863636265</v>
       </c>
+      <c r="T19" s="1">
+        <v>7.0019264185533494</v>
+      </c>
       <c r="U19" s="1">
-        <v>7.0019264185533494</v>
+        <v>2.2479655167247223</v>
       </c>
       <c r="V19" s="1">
-        <v>2.2479655167247223</v>
+        <v>4.0499450480778292E-2</v>
       </c>
       <c r="W19" s="1">
-        <v>4.0499450480778292E-2</v>
+        <v>0.13262410142291894</v>
       </c>
       <c r="X19" s="1">
-        <v>0.13262410142291894</v>
+        <v>9.5272573771543898E-2</v>
       </c>
       <c r="Y19" s="1">
+        <v>5.7681166823104997</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.23138086186107795</v>
+      </c>
+      <c r="AA19" s="43">
         <v>9.5272573771543898E-2</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AB19" s="43">
         <v>5.7681166823104997</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AC19" s="43">
         <v>0.23138086186107795</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AD19" s="1">
         <v>0.36290553082598054</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AE19" s="1">
         <v>1.0873446100695594</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AF19" s="1">
         <v>0.82519452309581742</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AG19" s="1">
         <v>1.0236234043095964</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AH19" s="1">
         <v>11.869166944188834</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AI19" s="1">
         <v>1.9927008736076874</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AJ19" s="1">
         <v>2.1471354515434111</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AK19" s="1">
         <v>0.36169779814359088</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AL19" s="1">
         <v>8.4697798740000003</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AM19" s="1">
         <v>1.2827786825699694</v>
       </c>
-      <c r="AL19" s="8">
+      <c r="AN19" s="8">
         <v>2.5122572046976868</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AO19" s="1">
         <v>4.6375666462655651</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AP19" s="1">
         <v>3.962627284824221</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AQ19" s="9">
         <v>0.38732610519511401</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AR19" s="1">
         <v>0.20939498493146214</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>2.4240177174840172</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0</v>
       </c>
       <c r="AS19" s="1">
         <v>2.4240177174840172</v>
       </c>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>2.4240177174840172</v>
+      </c>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
@@ -4805,83 +4912,83 @@
       <c r="BO19" s="4"/>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
-      <c r="BR19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS19" s="3">
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="3">
         <v>12.385297147441527</v>
       </c>
-      <c r="BT19" s="3">
+      <c r="BV19" s="3">
         <v>16.655562958027982</v>
       </c>
-      <c r="BU19" s="3">
+      <c r="BW19" s="3">
         <v>3.7565740045078888</v>
       </c>
-      <c r="BV19" s="3">
+      <c r="BX19" s="3">
         <v>7.1163031659009528</v>
       </c>
-      <c r="BW19" s="3">
+      <c r="BY19" s="3">
         <v>400</v>
       </c>
-      <c r="BX19" s="3">
+      <c r="BZ19" s="3">
         <v>200</v>
       </c>
-      <c r="BY19" s="3">
+      <c r="CA19" s="3">
         <v>11.556764106050306</v>
       </c>
-      <c r="BZ19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA19" s="3">
-        <v>0</v>
-      </c>
       <c r="CB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="3">
         <v>14.238739330269205</v>
       </c>
-      <c r="CC19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD19" s="3">
+      <c r="CE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="3">
         <v>26.873276428102425</v>
       </c>
-      <c r="CE19" s="3">
+      <c r="CG19" s="3">
         <v>16.685489166119506</v>
       </c>
-      <c r="CF19" s="3">
+      <c r="CH19" s="3">
         <v>5.4088471849865956</v>
       </c>
-      <c r="CG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH19" s="3">
+      <c r="CI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="3">
         <v>13.577481840193705</v>
       </c>
-      <c r="CI19" s="3">
+      <c r="CK19" s="3">
         <v>19.002757715036115</v>
       </c>
-      <c r="CJ19" s="3">
+      <c r="CL19" s="3">
         <v>36.308277830637493</v>
       </c>
-      <c r="CK19" s="3">
+      <c r="CM19" s="3">
         <v>20.663308144416458</v>
       </c>
-      <c r="CL19" s="3">
+      <c r="CN19" s="3">
         <v>4.4368266405484817</v>
       </c>
-      <c r="CM19" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN19" s="3">
-        <v>24.26789231779383</v>
-      </c>
-      <c r="CO19" s="10">
+      <c r="CO19" s="3">
         <v>0</v>
       </c>
       <c r="CP19" s="3">
         <v>24.26789231779383</v>
       </c>
-      <c r="CQ19" s="33"/>
-      <c r="CR19" s="33"/>
+      <c r="CQ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>24.26789231779383</v>
+      </c>
       <c r="CS19" s="33"/>
       <c r="CT19" s="33"/>
       <c r="CU19" s="33"/>
@@ -4904,19 +5011,4498 @@
       <c r="DL19" s="33"/>
       <c r="DM19" s="33"/>
       <c r="DN19" s="33"/>
+      <c r="DO19" s="33"/>
+      <c r="DP19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="CQ5:DN5"/>
-    <mergeCell ref="U5:AR5"/>
-    <mergeCell ref="BR5:CO5"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="AT5:BQ5"/>
+    <mergeCell ref="CS5:DP5"/>
+    <mergeCell ref="T5:AT5"/>
+    <mergeCell ref="BT5:CQ5"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="AV5:BS5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A8 A9:A19 J7:J19 K7:K19" unlockedFormula="1"/>
+    <ignoredError sqref="A8 A9:A19 I7:I19 J7:J19" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E403AA-D5CC-444F-9695-0987B00E28C7}">
+  <dimension ref="A1:DP19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="62" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="76" width="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="92" width="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="109" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+    </row>
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5"/>
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
+      <c r="DP2" s="5"/>
+    </row>
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+    </row>
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37">
+        <v>74</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+    </row>
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="48"/>
+      <c r="CG5" s="48"/>
+      <c r="CH5" s="48"/>
+      <c r="CI5" s="48"/>
+      <c r="CJ5" s="48"/>
+      <c r="CK5" s="48"/>
+      <c r="CL5" s="48"/>
+      <c r="CM5" s="48"/>
+      <c r="CN5" s="48"/>
+      <c r="CO5" s="48"/>
+      <c r="CP5" s="48"/>
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+    </row>
+    <row r="6" spans="1:120" ht="123" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="CH6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="CO6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CR6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="CW6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="CX6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="CY6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="CZ6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="DA6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="DB6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="DC6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="DD6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="DE6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="DF6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="DG6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="DH6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="DI6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="DL6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="DM6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="DO6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="DP6" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38">
+        <v>43693.728472222225</v>
+      </c>
+      <c r="C7" s="22">
+        <v>43693.728472222225</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.246</v>
+      </c>
+      <c r="I7" s="25">
+        <f>J7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <f>H7/K7*100</f>
+        <v>0.246</v>
+      </c>
+      <c r="K7" s="23">
+        <v>100</v>
+      </c>
+      <c r="L7" s="23">
+        <v>7.54</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="25">
+        <v>363</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>7.6461927016679906E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2.711509217188699</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.6554527017671918</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.5092115804755499</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3.2987069678508001</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3.8229262123463101</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>4.3471454568418197</v>
+      </c>
+      <c r="AA7" s="44">
+        <v>0.58922240878929977</v>
+      </c>
+      <c r="AB7" s="44">
+        <v>27.502388888888888</v>
+      </c>
+      <c r="AC7" s="44">
+        <v>2.3714081434275642</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0.79435680585184576</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>2.3324925965376186</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.88481489072900865</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1.6063992565585794</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>3.3954019356617842</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2.9225413052240334</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0.97672707237780321</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>1.594168944</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0.73712209022775343</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>2.5101114296033344</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>4.6203254495095543</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>3.1539466554981663</v>
+      </c>
+      <c r="AQ7" s="11">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1.4906404335608257</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>1.8344386938034827</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>1.8344386938034827</v>
+      </c>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="12">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV7" s="12">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW7" s="12">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX7" s="12">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY7" s="12">
+        <v>400</v>
+      </c>
+      <c r="BZ7" s="12">
+        <v>200</v>
+      </c>
+      <c r="CA7" s="12">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="12">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="12">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG7" s="12">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH7" s="12">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="12">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK7" s="12">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL7" s="12">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM7" s="12">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN7" s="12">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO7" s="12">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="12">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="12">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS7" s="31"/>
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="31"/>
+      <c r="CV7" s="31"/>
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="31"/>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="31"/>
+      <c r="DA7" s="31"/>
+      <c r="DB7" s="31"/>
+      <c r="DC7" s="31"/>
+      <c r="DD7" s="31"/>
+      <c r="DE7" s="31"/>
+      <c r="DF7" s="31"/>
+      <c r="DG7" s="31"/>
+      <c r="DH7" s="31"/>
+      <c r="DI7" s="31"/>
+      <c r="DJ7" s="31"/>
+      <c r="DK7" s="31"/>
+      <c r="DL7" s="31"/>
+      <c r="DM7" s="31"/>
+      <c r="DN7" s="31"/>
+      <c r="DO7" s="31"/>
+      <c r="DP7" s="31"/>
+    </row>
+    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <f t="shared" ref="A8:A19" si="0">A7+1</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="39">
+        <v>43694.723611111112</v>
+      </c>
+      <c r="C8" s="27">
+        <v>43694.723611111112</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I8" s="29">
+        <f t="shared" ref="I8:I19" si="1">J8-H8</f>
+        <v>5.4747474747475211E-3</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" ref="J8:J19" si="2">H8/K8*100</f>
+        <v>0.54747474747474756</v>
+      </c>
+      <c r="K8" s="28">
+        <v>99</v>
+      </c>
+      <c r="L8" s="28">
+        <v>7.39</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="29">
+        <v>349</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1.0837813533939622</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.19595374924303188</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2.7289140518912096</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3.6937780844074162</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1.5771286074872763</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3.3260407750694698</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3.83687963579436</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4.3477184965192501</v>
+      </c>
+      <c r="AA8" s="43">
+        <v>0.55314490748646117</v>
+      </c>
+      <c r="AB8" s="43">
+        <v>25.426547242939112</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>1.9725620920361557</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.90151991657611119</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2.3903471280745632</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.86446916056772383</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1.6113425683433062</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>2.9307274631641103</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>3.3792832375615105</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>2.9418901249472276</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0.96873240861081933</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2.101163203</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0.7424783462900566</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>2.5134102870098518</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>4.5964075727212119</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>3.2224774046246911</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1.539198047885167</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1.8459482231642248</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1.8459482231642248</v>
+      </c>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS8" s="32"/>
+      <c r="CT8" s="32"/>
+      <c r="CU8" s="32"/>
+      <c r="CV8" s="32"/>
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="32"/>
+      <c r="CZ8" s="32"/>
+      <c r="DA8" s="32"/>
+      <c r="DB8" s="32"/>
+      <c r="DC8" s="32"/>
+      <c r="DD8" s="32"/>
+      <c r="DE8" s="32"/>
+      <c r="DF8" s="32"/>
+      <c r="DG8" s="32"/>
+      <c r="DH8" s="32"/>
+      <c r="DI8" s="32"/>
+      <c r="DJ8" s="32"/>
+      <c r="DK8" s="32"/>
+      <c r="DL8" s="32"/>
+      <c r="DM8" s="32"/>
+      <c r="DN8" s="32"/>
+      <c r="DO8" s="32"/>
+      <c r="DP8" s="32"/>
+    </row>
+    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="39">
+        <v>43695.334722222222</v>
+      </c>
+      <c r="C9" s="27">
+        <v>43695.334722222222</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="I9" s="29">
+        <f t="shared" si="1"/>
+        <v>5.6740442655934809E-3</v>
+      </c>
+      <c r="J9" s="29">
+        <f t="shared" si="2"/>
+        <v>0.94567404426559343</v>
+      </c>
+      <c r="K9" s="28">
+        <v>99.4</v>
+      </c>
+      <c r="L9" s="28">
+        <v>7.28</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26">
+        <v>0.35981874142819009</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="29">
+        <v>345</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1.7707139870843496</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.31252353313677161</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2.7491435044610353</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.7034550114540341</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.6366201537906375</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3.3320858929492698</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.82474602984473</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4.3174061667401897</v>
+      </c>
+      <c r="AA9" s="43">
+        <v>0.52486953219131804</v>
+      </c>
+      <c r="AB9" s="43">
+        <v>23.974880573733945</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>1.5946714658830339</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1.047754658713991</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>2.4787807547250966</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0.82469358291131312</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1.6188277982726513</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>6.8900560797677288</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>3.3753277288252468</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2.9227037311976494</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0.95890021108056467</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2.5608856740000001</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0.73470583130394718</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>2.5173911766727057</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>4.5289298536887683</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>3.2856664352320077</v>
+      </c>
+      <c r="AQ9" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1.4917804986280718</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1.8489617245533294</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>1.8489617245533294</v>
+      </c>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ9" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA9" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH9" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="32"/>
+      <c r="CU9" s="32"/>
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="32"/>
+      <c r="DA9" s="32"/>
+      <c r="DB9" s="32"/>
+      <c r="DC9" s="32"/>
+      <c r="DD9" s="32"/>
+      <c r="DE9" s="32"/>
+      <c r="DF9" s="32"/>
+      <c r="DG9" s="32"/>
+      <c r="DH9" s="32"/>
+      <c r="DI9" s="32"/>
+      <c r="DJ9" s="32"/>
+      <c r="DK9" s="32"/>
+      <c r="DL9" s="32"/>
+      <c r="DM9" s="32"/>
+      <c r="DN9" s="32"/>
+      <c r="DO9" s="32"/>
+      <c r="DP9" s="32"/>
+    </row>
+    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="39">
+        <v>43695.711111111108</v>
+      </c>
+      <c r="C10" s="27">
+        <v>43695.711111111108</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.43</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1532258064516077E-2</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="2"/>
+        <v>1.441532258064516</v>
+      </c>
+      <c r="K10" s="28">
+        <v>99.2</v>
+      </c>
+      <c r="L10" s="28">
+        <v>7.17</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26">
+        <v>0.33363074997383901</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29">
+        <v>348</v>
+      </c>
+      <c r="S10" s="29">
+        <v>2.7156864658976447</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.42848595234369125</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2.731908387302282</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3.6818178242372395</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.6689911923545755</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3.2956571283013498</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3.7627996439981102</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4.2299421596948701</v>
+      </c>
+      <c r="AA10" s="43">
+        <v>0.50386422035016931</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>21.466012738492722</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>1.2751367581620883</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.1574115349606136</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>2.5375153175465406</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.80790727342614599</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.6093219141902695</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>8.9363115563543634</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>3.3501650025542822</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>2.9295654812241172</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0.9631056372784309</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>3.1934062499999998</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0.73102647039570401</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>2.5136869320380693</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>4.4431861561438408</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>3.3253894150667036</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1.5329469305921741</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1.8398875071376599</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>1.8398875071376599</v>
+      </c>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV10" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX10" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY10" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ10" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA10" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG10" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH10" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK10" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL10" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM10" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS10" s="32"/>
+      <c r="CT10" s="32"/>
+      <c r="CU10" s="32"/>
+      <c r="CV10" s="32"/>
+      <c r="CW10" s="32"/>
+      <c r="CX10" s="32"/>
+      <c r="CY10" s="32"/>
+      <c r="CZ10" s="32"/>
+      <c r="DA10" s="32"/>
+      <c r="DB10" s="32"/>
+      <c r="DC10" s="32"/>
+      <c r="DD10" s="32"/>
+      <c r="DE10" s="32"/>
+      <c r="DF10" s="32"/>
+      <c r="DG10" s="32"/>
+      <c r="DH10" s="32"/>
+      <c r="DI10" s="32"/>
+      <c r="DJ10" s="32"/>
+      <c r="DK10" s="32"/>
+      <c r="DL10" s="32"/>
+      <c r="DM10" s="32"/>
+      <c r="DN10" s="32"/>
+      <c r="DO10" s="32"/>
+      <c r="DP10" s="32"/>
+    </row>
+    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="39">
+        <v>43696.338888888888</v>
+      </c>
+      <c r="C11" s="27">
+        <v>43696.338888888888</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>3.11</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="1"/>
+        <v>7.6475409836065822E-2</v>
+      </c>
+      <c r="J11" s="29">
+        <f t="shared" si="2"/>
+        <v>3.1864754098360657</v>
+      </c>
+      <c r="K11" s="28">
+        <v>97.6</v>
+      </c>
+      <c r="L11" s="28">
+        <v>6.88</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
+        <v>0.32849474605151852</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="29">
+        <v>344</v>
+      </c>
+      <c r="S11" s="29">
+        <v>4.3548116936097419</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.70490244144196923</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.6981436137831789</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.6358644176064896</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1.7371464762610955</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3.2026274643433599</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.6060727551714198</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4.0095180459994904</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>0.47273606133588347</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>17.376941753843557</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>0.70330691884194707</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1.3388167324505007</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>2.633448909004672</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.74884318114944093</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1.615084805215143</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>16.143501769968584</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>3.2954280849329751</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>2.9008501634543409</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0.93495786164905548</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>4.1231191730000001</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0.70738002316921833</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>2.5120632302459951</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>4.2106008756779003</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>3.3105259225449548</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1.5000457877019093</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1.8158515526672732</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1.8158515526672732</v>
+      </c>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV11" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW11" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX11" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY11" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ11" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA11" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG11" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH11" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK11" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL11" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM11" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN11" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS11" s="32"/>
+      <c r="CT11" s="32"/>
+      <c r="CU11" s="32"/>
+      <c r="CV11" s="32"/>
+      <c r="CW11" s="32"/>
+      <c r="CX11" s="32"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="32"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="32"/>
+      <c r="DC11" s="32"/>
+      <c r="DD11" s="32"/>
+      <c r="DE11" s="32"/>
+      <c r="DF11" s="32"/>
+      <c r="DG11" s="32"/>
+      <c r="DH11" s="32"/>
+      <c r="DI11" s="32"/>
+      <c r="DJ11" s="32"/>
+      <c r="DK11" s="32"/>
+      <c r="DL11" s="32"/>
+      <c r="DM11" s="32"/>
+      <c r="DN11" s="32"/>
+      <c r="DO11" s="32"/>
+      <c r="DP11" s="32"/>
+    </row>
+    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="39">
+        <v>43696.718055555553</v>
+      </c>
+      <c r="C12" s="27">
+        <v>43696.718055555553</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1.31</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15433747412008358</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="2"/>
+        <v>4.5393374741200834</v>
+      </c>
+      <c r="K12" s="28">
+        <v>96.6</v>
+      </c>
+      <c r="L12" s="28">
+        <v>6.77</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26">
+        <v>0.32</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="29">
+        <v>348</v>
+      </c>
+      <c r="S12" s="29">
+        <v>8.4888083309258633</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.96161591953085801</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2.7229348612043491</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3.5345654547628689</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.7475102401136284</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.0339850077296302</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.3509163632603198</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.6678477187910001</v>
+      </c>
+      <c r="AA12" s="43">
+        <v>0.45951582450448508</v>
+      </c>
+      <c r="AB12" s="43">
+        <v>15.011434866720444</v>
+      </c>
+      <c r="AC12" s="43">
+        <v>0.40816070243757463</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.4205757318866696</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>2.6782306820516886</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.72552218717914885</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1.6204801900022348</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>18.649652864658417</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>3.280003000216055</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>2.8626268477100467</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0.9300800688024915</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>4.6011874229999998</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0.6848989267871014</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>2.512832454126011</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>4.0870035929755906</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>3.4234207126221992</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1.4983088994243878</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1.7865878743197858</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1.7865878743197858</v>
+      </c>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV12" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX12" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY12" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ12" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA12" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG12" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH12" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL12" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM12" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN12" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS12" s="32"/>
+      <c r="CT12" s="32"/>
+      <c r="CU12" s="32"/>
+      <c r="CV12" s="32"/>
+      <c r="CW12" s="32"/>
+      <c r="CX12" s="32"/>
+      <c r="CY12" s="32"/>
+      <c r="CZ12" s="32"/>
+      <c r="DA12" s="32"/>
+      <c r="DB12" s="32"/>
+      <c r="DC12" s="32"/>
+      <c r="DD12" s="32"/>
+      <c r="DE12" s="32"/>
+      <c r="DF12" s="32"/>
+      <c r="DG12" s="32"/>
+      <c r="DH12" s="32"/>
+      <c r="DI12" s="32"/>
+      <c r="DJ12" s="32"/>
+      <c r="DK12" s="32"/>
+      <c r="DL12" s="32"/>
+      <c r="DM12" s="32"/>
+      <c r="DN12" s="32"/>
+      <c r="DO12" s="32"/>
+      <c r="DP12" s="32"/>
+    </row>
+    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="39">
+        <v>43697.709027777775</v>
+      </c>
+      <c r="C13" s="27">
+        <v>43697.709027777775</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1.969125</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.32818750000000002</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" si="1"/>
+        <v>0.32556359875904839</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" si="2"/>
+        <v>9.8655635987590475</v>
+      </c>
+      <c r="K13" s="28">
+        <v>96.7</v>
+      </c>
+      <c r="L13" s="28">
+        <v>6.76</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26">
+        <v>0.152</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29">
+        <v>343</v>
+      </c>
+      <c r="S13" s="29">
+        <v>24.061854144702142</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2.1128819114897488</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2.5696221134837933</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2.819506744977851</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1.4129837478214116</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.76629616456546</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.58131517861437</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1.39633419266327</v>
+      </c>
+      <c r="AA13" s="43">
+        <v>0.34389271729916621</v>
+      </c>
+      <c r="AB13" s="43">
+        <v>15.546373291355277</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>0.1547772288742644</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.4099913663501495</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2.5393871547127755</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.68583153760241788</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1.5651878934875147</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>19.563292350935281</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>3.1256735559687692</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>2.6893059775309283</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0.83007504877160265</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>6.230516154</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0.7092167717554716</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>2.5106769910734723</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>3.7660003978119589</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>3.5393244920551523</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1.3175927554113496</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1.8719438868012725</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1.8719438868012725</v>
+      </c>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV13" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW13" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX13" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY13" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ13" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA13" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG13" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH13" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK13" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL13" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM13" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN13" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS13" s="32"/>
+      <c r="CT13" s="32"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="32"/>
+      <c r="CW13" s="32"/>
+      <c r="CX13" s="32"/>
+      <c r="CY13" s="32"/>
+      <c r="CZ13" s="32"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="32"/>
+      <c r="DC13" s="32"/>
+      <c r="DD13" s="32"/>
+      <c r="DE13" s="32"/>
+      <c r="DF13" s="32"/>
+      <c r="DG13" s="32"/>
+      <c r="DH13" s="32"/>
+      <c r="DI13" s="32"/>
+      <c r="DJ13" s="32"/>
+      <c r="DK13" s="32"/>
+      <c r="DL13" s="32"/>
+      <c r="DM13" s="32"/>
+      <c r="DN13" s="32"/>
+      <c r="DO13" s="32"/>
+      <c r="DP13" s="32"/>
+    </row>
+    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="39">
+        <v>43698.774305555555</v>
+      </c>
+      <c r="C14" s="27">
+        <v>43698.774305555555</v>
+      </c>
+      <c r="D14" s="26">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1.7380443750000001</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.28967406250000005</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>16.200000000000003</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="1"/>
+        <v>0.51826625386996739</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="2"/>
+        <v>16.71826625386997</v>
+      </c>
+      <c r="K14" s="28">
+        <v>96.9</v>
+      </c>
+      <c r="L14" s="28">
+        <v>6.85</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26">
+        <v>0.13600000000000004</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="29">
+        <v>338</v>
+      </c>
+      <c r="S14" s="29">
+        <v>56.620808377497163</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4.95162989298451</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.4377076496460197</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.3667378151432403</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.8326054083690293</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-0.95984063055160596</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-2.3026449593865301</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-3.64544928822145</v>
+      </c>
+      <c r="AA14" s="43">
+        <v>0.21402664815660277</v>
+      </c>
+      <c r="AB14" s="43">
+        <v>13.641016990339555</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>6.3362935293955411E-2</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.93923162558840578</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2.2122901946542428</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.67843145666474569</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1.4713700793863878</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>18.512626830142985</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>2.879609893548301</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>2.4372394009777927</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.69891477837276683</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>6.8912134739999997</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.76819822379981539</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>2.5114980993517766</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>3.5162573495475695</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>3.7014139708595648</v>
+      </c>
+      <c r="AQ14" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>1.0671139329541393</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>1.9927753521601972</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>1.9927753521601972</v>
+      </c>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV14" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW14" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY14" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ14" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA14" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG14" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH14" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK14" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL14" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM14" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN14" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS14" s="32"/>
+      <c r="CT14" s="32"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="32"/>
+      <c r="CW14" s="32"/>
+      <c r="CX14" s="32"/>
+      <c r="CY14" s="32"/>
+      <c r="CZ14" s="32"/>
+      <c r="DA14" s="32"/>
+      <c r="DB14" s="32"/>
+      <c r="DC14" s="32"/>
+      <c r="DD14" s="32"/>
+      <c r="DE14" s="32"/>
+      <c r="DF14" s="32"/>
+      <c r="DG14" s="32"/>
+      <c r="DH14" s="32"/>
+      <c r="DI14" s="32"/>
+      <c r="DJ14" s="32"/>
+      <c r="DK14" s="32"/>
+      <c r="DL14" s="32"/>
+      <c r="DM14" s="32"/>
+      <c r="DN14" s="32"/>
+      <c r="DO14" s="32"/>
+      <c r="DP14" s="32"/>
+    </row>
+    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="39">
+        <v>43699.72152777778</v>
+      </c>
+      <c r="C15" s="27">
+        <v>43699.72152777778</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1.753875928125</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.29231265468750001</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>18.8</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1787460148777917</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" si="2"/>
+        <v>19.978746014877792</v>
+      </c>
+      <c r="K15" s="28">
+        <v>94.1</v>
+      </c>
+      <c r="L15" s="28">
+        <v>7</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26">
+        <v>0.13511353740914939</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="29">
+        <v>325</v>
+      </c>
+      <c r="S15" s="29">
+        <v>61.835701127156462</v>
+      </c>
+      <c r="T15" s="1">
+        <v>8.2425685629750962</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2.307565971105292</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3.3960139783844462E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.17123657860599778</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-3.9330676329896299</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-6.5818278114325297</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-9.23058798987533</v>
+      </c>
+      <c r="AA15" s="43">
+        <v>6.5240722507381319E-2</v>
+      </c>
+      <c r="AB15" s="43">
+        <v>11.449430994015446</v>
+      </c>
+      <c r="AC15" s="43">
+        <v>5.3996757506675361E-2</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.30779644036066922</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1.9760349951434468</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0.68222904676666341</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1.2667132157763745</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>16.769300583758994</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>2.5559135415348901</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>2.3210117587635888</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.58717928973602795</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>6.8218297850000003</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.85016598636670715</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>2.5119792679417112</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>3.7129166555585593</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>3.6319098746694962</v>
+      </c>
+      <c r="AQ15" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0.79076621578769624</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>1.9977931278683052</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>1.9977931278683052</v>
+      </c>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV15" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW15" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX15" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY15" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ15" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA15" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG15" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH15" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK15" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL15" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM15" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS15" s="33"/>
+      <c r="CT15" s="33"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="33"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="33"/>
+      <c r="CY15" s="33"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="33"/>
+      <c r="DC15" s="33"/>
+      <c r="DD15" s="33"/>
+      <c r="DE15" s="33"/>
+      <c r="DF15" s="33"/>
+      <c r="DG15" s="33"/>
+      <c r="DH15" s="33"/>
+      <c r="DI15" s="33"/>
+      <c r="DJ15" s="33"/>
+      <c r="DK15" s="33"/>
+      <c r="DL15" s="33"/>
+      <c r="DM15" s="33"/>
+      <c r="DN15" s="33"/>
+      <c r="DO15" s="33"/>
+      <c r="DP15" s="33"/>
+    </row>
+    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="39">
+        <v>43700.703472222223</v>
+      </c>
+      <c r="C16" s="27">
+        <v>43700.703472222223</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1.7702615856093751</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.29504359760156251</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>20.3</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4344753747323331</v>
+      </c>
+      <c r="J16" s="29">
+        <f t="shared" si="2"/>
+        <v>21.734475374732334</v>
+      </c>
+      <c r="K16" s="28">
+        <v>93.4</v>
+      </c>
+      <c r="L16" s="28">
+        <v>6.73</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26">
+        <v>0.11047999999999999</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="29">
+        <v>332</v>
+      </c>
+      <c r="S16" s="29">
+        <v>113.18532757418016</v>
+      </c>
+      <c r="T16" s="1">
+        <v>8.6779726253818072</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.2461081038786053</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4.4538289539620239E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>6.1328736751091482E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>-4.2553884311700498</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-7.0605385791931496</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>-9.8656887272162503</v>
+      </c>
+      <c r="AA16" s="43">
+        <v>0.1069505768522218</v>
+      </c>
+      <c r="AB16" s="43">
+        <v>7.163265709739723</v>
+      </c>
+      <c r="AC16" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1.6296853587141176</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0.73669932145388028</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.1100160422270209</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>18.200412267308504</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>2.1427912066055517</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>2.1673322743558452</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0.4825661137147883</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>7.698033294</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0.95844019991714025</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>2.5118981043809034</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>3.9431803421145011</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>3.8422311147797266</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0.59328404011197566</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>2.1249027814095478</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>2.1249027814095478</v>
+      </c>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV16" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW16" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX16" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY16" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA16" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG16" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH16" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK16" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL16" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM16" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN16" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS16" s="33"/>
+      <c r="CT16" s="33"/>
+      <c r="CU16" s="33"/>
+      <c r="CV16" s="33"/>
+      <c r="CW16" s="33"/>
+      <c r="CX16" s="33"/>
+      <c r="CY16" s="33"/>
+      <c r="CZ16" s="33"/>
+      <c r="DA16" s="33"/>
+      <c r="DB16" s="33"/>
+      <c r="DC16" s="33"/>
+      <c r="DD16" s="33"/>
+      <c r="DE16" s="33"/>
+      <c r="DF16" s="33"/>
+      <c r="DG16" s="33"/>
+      <c r="DH16" s="33"/>
+      <c r="DI16" s="33"/>
+      <c r="DJ16" s="33"/>
+      <c r="DK16" s="33"/>
+      <c r="DL16" s="33"/>
+      <c r="DM16" s="33"/>
+      <c r="DN16" s="33"/>
+      <c r="DO16" s="33"/>
+      <c r="DP16" s="33"/>
+    </row>
+    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="39">
+        <v>43701.728472222225</v>
+      </c>
+      <c r="C17" s="27">
+        <v>43701.728472222225</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1.7872207411057033</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.29787012351761721</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>18.7</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="1"/>
+        <v>3.4563981042654035</v>
+      </c>
+      <c r="J17" s="29">
+        <f t="shared" si="2"/>
+        <v>22.156398104265403</v>
+      </c>
+      <c r="K17" s="28">
+        <v>84.4</v>
+      </c>
+      <c r="L17" s="28">
+        <v>6.42</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26">
+        <v>7.7413849323293801E-2</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="29">
+        <v>327</v>
+      </c>
+      <c r="S17" s="29">
+        <v>140.02051981352034</v>
+      </c>
+      <c r="T17" s="1">
+        <v>7.8012862160895207</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.2312381648603905</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5.2380707890302469E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>5.9284808296430701E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-3.81516794580314</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-6.3556541138381402</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-8.8961402818730395</v>
+      </c>
+      <c r="AA17" s="43">
+        <v>9.8897551212448795E-2</v>
+      </c>
+      <c r="AB17" s="43">
+        <v>1.6640646024665666</v>
+      </c>
+      <c r="AC17" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1.3871063730289694</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.75034614431937685</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1.022991107054819</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>20.639457536870228</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>1.9579779905791723</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>2.1343952763417859</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.4097923743292084</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>10.079585590000001</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>1.053262337353301</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>2.5124460122383456</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>4.2924973874682832</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>3.9176047733143267</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>0.38732610519511396</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0.45656802055380713</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>2.2033692817845343</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>2.2033692817845343</v>
+      </c>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV17" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW17" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX17" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY17" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ17" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA17" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG17" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH17" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK17" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL17" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM17" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS17" s="33"/>
+      <c r="CT17" s="33"/>
+      <c r="CU17" s="33"/>
+      <c r="CV17" s="33"/>
+      <c r="CW17" s="33"/>
+      <c r="CX17" s="33"/>
+      <c r="CY17" s="33"/>
+      <c r="CZ17" s="33"/>
+      <c r="DA17" s="33"/>
+      <c r="DB17" s="33"/>
+      <c r="DC17" s="33"/>
+      <c r="DD17" s="33"/>
+      <c r="DE17" s="33"/>
+      <c r="DF17" s="33"/>
+      <c r="DG17" s="33"/>
+      <c r="DH17" s="33"/>
+      <c r="DI17" s="33"/>
+      <c r="DJ17" s="33"/>
+      <c r="DK17" s="33"/>
+      <c r="DL17" s="33"/>
+      <c r="DM17" s="33"/>
+      <c r="DN17" s="33"/>
+      <c r="DO17" s="33"/>
+      <c r="DP17" s="33"/>
+    </row>
+    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="39">
+        <v>43702.713888888888</v>
+      </c>
+      <c r="C18" s="27">
+        <v>43702.713888888888</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1.8047734670444029</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.30079557784073385</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>6.8579529737206073</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="2"/>
+        <v>24.757952973720606</v>
+      </c>
+      <c r="K18" s="28">
+        <v>72.3</v>
+      </c>
+      <c r="L18" s="28">
+        <v>6.77</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26">
+        <v>0.10417364313118646</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29">
+        <v>317</v>
+      </c>
+      <c r="S18" s="29">
+        <v>170.90826529097964</v>
+      </c>
+      <c r="T18" s="1">
+        <v>7.1458786449179614</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2.2355581006507372</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5.6752345579026538E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>7.246867505554562E-2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>7.8907359598154633E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.78387369065313339</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4.0653030354979088E-2</v>
+      </c>
+      <c r="AA18" s="43">
+        <v>7.8907359598154633E-2</v>
+      </c>
+      <c r="AB18" s="43">
+        <v>0.78387369065313339</v>
+      </c>
+      <c r="AC18" s="43">
+        <v>4.0653030354979088E-2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>5.1834686815475053E-2</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1.157300899783295</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.76844773376229392</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.99922828731304703</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>16.661507712428062</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1.9177481811190105</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>2.1587920561701313</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.36928886937216954</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>9.8645141840000008</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1.1653213924218826</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>2.5194243561641336</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>4.5002146936687213</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>4.0284893348608684</v>
+      </c>
+      <c r="AQ18" s="9">
+        <v>0.38732610519511401</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0.29371775681177281</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>2.3198271404555855</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>2.3198271404555855</v>
+      </c>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV18" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW18" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX18" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY18" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ18" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA18" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG18" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH18" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK18" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL18" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM18" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
+      <c r="CW18" s="33"/>
+      <c r="CX18" s="33"/>
+      <c r="CY18" s="33"/>
+      <c r="CZ18" s="33"/>
+      <c r="DA18" s="33"/>
+      <c r="DB18" s="33"/>
+      <c r="DC18" s="33"/>
+      <c r="DD18" s="33"/>
+      <c r="DE18" s="33"/>
+      <c r="DF18" s="33"/>
+      <c r="DG18" s="33"/>
+      <c r="DH18" s="33"/>
+      <c r="DI18" s="33"/>
+      <c r="DJ18" s="33"/>
+      <c r="DK18" s="33"/>
+      <c r="DL18" s="33"/>
+      <c r="DM18" s="33"/>
+      <c r="DN18" s="33"/>
+      <c r="DO18" s="33"/>
+      <c r="DP18" s="33"/>
+    </row>
+    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="39">
+        <v>43703.456250000003</v>
+      </c>
+      <c r="C19" s="27">
+        <v>43703.456250000003</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>14.2</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="1"/>
+        <v>7.250151057401812</v>
+      </c>
+      <c r="J19" s="29">
+        <f t="shared" si="2"/>
+        <v>21.450151057401811</v>
+      </c>
+      <c r="K19" s="28">
+        <v>66.2</v>
+      </c>
+      <c r="L19" s="28">
+        <v>6.86</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
+        <v>0.13216193953743124</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="29">
+        <v>321</v>
+      </c>
+      <c r="S19" s="29">
+        <v>187.92388863636265</v>
+      </c>
+      <c r="T19" s="1">
+        <v>7.0019264185533494</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2.2479655167247223</v>
+      </c>
+      <c r="V19" s="1">
+        <v>4.0499450480778292E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.13262410142291894</v>
+      </c>
+      <c r="X19" s="1">
+        <v>9.5272573771543898E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>5.7681166823104997</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.23138086186107795</v>
+      </c>
+      <c r="AA19" s="43">
+        <v>9.5272573771543898E-2</v>
+      </c>
+      <c r="AB19" s="43">
+        <v>5.7681166823104997</v>
+      </c>
+      <c r="AC19" s="43">
+        <v>0.23138086186107795</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.36290553082598054</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1.0873446100695594</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.82519452309581742</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.0236234043095964</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>11.869166944188834</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1.9927008736076874</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>2.1471354515434111</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.36169779814359088</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>8.4697798740000003</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>1.2827786825699694</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>2.5122572046976868</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>4.6375666462655651</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>3.962627284824221</v>
+      </c>
+      <c r="AQ19" s="9">
+        <v>0.38732610519511401</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0.20939498493146214</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>2.4240177174840172</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>2.4240177174840172</v>
+      </c>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="3">
+        <v>12.385297147441527</v>
+      </c>
+      <c r="BV19" s="3">
+        <v>16.655562958027982</v>
+      </c>
+      <c r="BW19" s="3">
+        <v>3.7565740045078888</v>
+      </c>
+      <c r="BX19" s="3">
+        <v>7.1163031659009528</v>
+      </c>
+      <c r="BY19" s="3">
+        <v>400</v>
+      </c>
+      <c r="BZ19" s="3">
+        <v>200</v>
+      </c>
+      <c r="CA19" s="3">
+        <v>11.556764106050306</v>
+      </c>
+      <c r="CB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="3">
+        <v>14.238739330269205</v>
+      </c>
+      <c r="CE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="3">
+        <v>26.873276428102425</v>
+      </c>
+      <c r="CG19" s="3">
+        <v>16.685489166119506</v>
+      </c>
+      <c r="CH19" s="3">
+        <v>5.4088471849865956</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>13.577481840193705</v>
+      </c>
+      <c r="CK19" s="3">
+        <v>19.002757715036115</v>
+      </c>
+      <c r="CL19" s="3">
+        <v>36.308277830637493</v>
+      </c>
+      <c r="CM19" s="3">
+        <v>20.663308144416458</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>4.4368266405484817</v>
+      </c>
+      <c r="CO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CQ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>24.26789231779383</v>
+      </c>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="33"/>
+      <c r="CU19" s="33"/>
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="33"/>
+      <c r="CX19" s="33"/>
+      <c r="CY19" s="33"/>
+      <c r="CZ19" s="33"/>
+      <c r="DA19" s="33"/>
+      <c r="DB19" s="33"/>
+      <c r="DC19" s="33"/>
+      <c r="DD19" s="33"/>
+      <c r="DE19" s="33"/>
+      <c r="DF19" s="33"/>
+      <c r="DG19" s="33"/>
+      <c r="DH19" s="33"/>
+      <c r="DI19" s="33"/>
+      <c r="DJ19" s="33"/>
+      <c r="DK19" s="33"/>
+      <c r="DL19" s="33"/>
+      <c r="DM19" s="33"/>
+      <c r="DN19" s="33"/>
+      <c r="DO19" s="33"/>
+      <c r="DP19" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="T5:AT5"/>
+    <mergeCell ref="AV5:BS5"/>
+    <mergeCell ref="BT5:CQ5"/>
+    <mergeCell ref="CS5:DP5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>